--- a/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>67068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54178</v>
+        <v>53604</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83433</v>
+        <v>84554</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0966386606363424</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07806498975639853</v>
+        <v>0.07723758662858839</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1202188541814377</v>
+        <v>0.1218339639122948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -765,19 +765,19 @@
         <v>55689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43588</v>
+        <v>43367</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72068</v>
+        <v>70614</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08090242040907739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06332177170338746</v>
+        <v>0.06300152671239286</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1046968980141754</v>
+        <v>0.1025847694310636</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -786,19 +786,19 @@
         <v>122758</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103507</v>
+        <v>104116</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145194</v>
+        <v>145589</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08880276229482696</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0748768133717414</v>
+        <v>0.07531738174827357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1050329083375901</v>
+        <v>0.105318948293445</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>349731</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>322592</v>
+        <v>323683</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>374857</v>
+        <v>376814</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.503926167224435</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4648224428129715</v>
+        <v>0.4663941075733437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5401302991155567</v>
+        <v>0.5429498670405014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>315</v>
@@ -836,19 +836,19 @@
         <v>312211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285895</v>
+        <v>286715</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>340778</v>
+        <v>336389</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4535640255116747</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4153335113058661</v>
+        <v>0.416524097142552</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4950643185995643</v>
+        <v>0.4886878447217687</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>653</v>
@@ -857,19 +857,19 @@
         <v>661942</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>623100</v>
+        <v>621819</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>696993</v>
+        <v>699004</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4788482186787313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4507499896167455</v>
+        <v>0.4498232694295161</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5042039649738088</v>
+        <v>0.5056585373801045</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>277213</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>253339</v>
+        <v>249489</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>303931</v>
+        <v>301959</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3994351721392227</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3650350617923783</v>
+        <v>0.3594879373320882</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.437933585449341</v>
+        <v>0.4350912987902992</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>327</v>
@@ -907,19 +907,19 @@
         <v>320450</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>294726</v>
+        <v>296027</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>348207</v>
+        <v>345074</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4655335540792478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4281629294191223</v>
+        <v>0.4300530546212143</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5058567875466911</v>
+        <v>0.5013056342201441</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>606</v>
@@ -928,19 +928,19 @@
         <v>597663</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>560890</v>
+        <v>561746</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>634234</v>
+        <v>634873</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4323490190264417</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4057470481114243</v>
+        <v>0.406366156546414</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4588040521979054</v>
+        <v>0.4592661525088774</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>124048</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>102693</v>
+        <v>102903</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148397</v>
+        <v>146842</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1289745518781802</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.106771479693657</v>
+        <v>0.1069903849308407</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1542908738239009</v>
+        <v>0.152673908272487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>110</v>
@@ -1053,19 +1053,19 @@
         <v>115981</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>97302</v>
+        <v>95341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>136847</v>
+        <v>138815</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1197660122198294</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1004775193040892</v>
+        <v>0.09845245229840877</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1413135618457669</v>
+        <v>0.1433456144770612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>220</v>
@@ -1074,19 +1074,19 @@
         <v>240028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>212148</v>
+        <v>211730</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>271186</v>
+        <v>270749</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.124354555024072</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1099100323452982</v>
+        <v>0.1096937749677942</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1404970021344332</v>
+        <v>0.1402705841986689</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>488787</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>458737</v>
+        <v>457073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>520173</v>
+        <v>523808</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5081998341758149</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4769567171487682</v>
+        <v>0.4752271602284705</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5408325868337327</v>
+        <v>0.5446120132926976</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>428</v>
@@ -1124,19 +1124,19 @@
         <v>454879</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>425055</v>
+        <v>423052</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>488815</v>
+        <v>484594</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4697251947061857</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4389282266419413</v>
+        <v>0.4368597297396798</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5047694505858017</v>
+        <v>0.5004102252277387</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>880</v>
@@ -1145,19 +1145,19 @@
         <v>943665</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>899496</v>
+        <v>894863</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>985696</v>
+        <v>991445</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4888968046067952</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4660136501369919</v>
+        <v>0.4636132502250907</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5106721563184714</v>
+        <v>0.5136504980895504</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>348966</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>318689</v>
+        <v>319850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>378907</v>
+        <v>377951</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3628256139460049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3313465103736313</v>
+        <v>0.3325537690016591</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3939560987167275</v>
+        <v>0.3929622043780825</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>370</v>
@@ -1195,19 +1195,19 @@
         <v>397534</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>364742</v>
+        <v>365831</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>425805</v>
+        <v>428702</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4105087930739849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.376647068508347</v>
+        <v>0.3777716798399593</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4397027810281204</v>
+        <v>0.4426939935626533</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>704</v>
@@ -1216,19 +1216,19 @@
         <v>746500</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>704812</v>
+        <v>701686</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>791353</v>
+        <v>791957</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3867486403691328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3651510164074282</v>
+        <v>0.3635314253986486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4099866768813073</v>
+        <v>0.4102996345789486</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>134442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>112374</v>
+        <v>112825</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>156958</v>
+        <v>157728</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1981434945703085</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1656196348876219</v>
+        <v>0.1662835763007504</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2313271226558678</v>
+        <v>0.2324621789474056</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -1341,19 +1341,19 @@
         <v>88040</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>72007</v>
+        <v>70838</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>108839</v>
+        <v>107273</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1287432295290008</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1052979119003605</v>
+        <v>0.1035890176351267</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1591580691459128</v>
+        <v>0.1568679759905527</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>202</v>
@@ -1362,19 +1362,19 @@
         <v>222482</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>195481</v>
+        <v>193387</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>253122</v>
+        <v>250749</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1633075486988346</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1434878330392721</v>
+        <v>0.1419510155903813</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1857981686003631</v>
+        <v>0.1840563592618474</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>359680</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>332876</v>
+        <v>334141</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>386166</v>
+        <v>386258</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5301036645756749</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4905995367465115</v>
+        <v>0.4924642495713467</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5691385091960798</v>
+        <v>0.5692741363794831</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>342</v>
@@ -1412,19 +1412,19 @@
         <v>334887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>308315</v>
+        <v>309571</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>359462</v>
+        <v>360827</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4897141463438214</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4508583336275673</v>
+        <v>0.4526938583751081</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5256514303127816</v>
+        <v>0.5276477334860608</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>681</v>
@@ -1433,19 +1433,19 @@
         <v>694567</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>658636</v>
+        <v>656477</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>731625</v>
+        <v>731328</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5098298648998049</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4834556134283892</v>
+        <v>0.4818710561961682</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5370317859311664</v>
+        <v>0.5368133202250839</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>184387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161439</v>
+        <v>162970</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208787</v>
+        <v>208344</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2717528408540166</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2379326288237148</v>
+        <v>0.2401889827465598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3077137156410193</v>
+        <v>0.3070614329373976</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>270</v>
@@ -1483,19 +1483,19 @@
         <v>260914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>236565</v>
+        <v>235921</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>286344</v>
+        <v>285862</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3815426241271778</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3459358895424883</v>
+        <v>0.3449939856543399</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.418729475177672</v>
+        <v>0.4180234620032372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>454</v>
@@ -1504,19 +1504,19 @@
         <v>445301</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>405463</v>
+        <v>411170</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>478647</v>
+        <v>483036</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3268625864013605</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2976202080608796</v>
+        <v>0.301809433034172</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3513394267888648</v>
+        <v>0.3545606924254237</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>225850</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>199055</v>
+        <v>202155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>251314</v>
+        <v>253551</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2396989413489884</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2112610902804022</v>
+        <v>0.2145515165106148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2667244493129076</v>
+        <v>0.2690990843845522</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>204</v>
@@ -1629,19 +1629,19 @@
         <v>216702</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>190625</v>
+        <v>190316</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>245901</v>
+        <v>244282</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2086456339411368</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1835386895998645</v>
+        <v>0.1832403091996176</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2367596182221788</v>
+        <v>0.2352002789618279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>437</v>
@@ -1650,19 +1650,19 @@
         <v>442551</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>405941</v>
+        <v>405181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>479969</v>
+        <v>479246</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2234167409287693</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2049345007871275</v>
+        <v>0.2045506299479863</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2423066456435267</v>
+        <v>0.2419413735385483</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>495215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>466486</v>
+        <v>465284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>523057</v>
+        <v>526292</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.525581958781247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4950918261457956</v>
+        <v>0.4938153915644308</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5551314254086301</v>
+        <v>0.5585651125528009</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>469</v>
@@ -1700,19 +1700,19 @@
         <v>485696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>454656</v>
+        <v>447671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>519868</v>
+        <v>517634</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4676399460206371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4377530601164391</v>
+        <v>0.4310283742795283</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5005408913903917</v>
+        <v>0.4983899920014254</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>989</v>
@@ -1721,19 +1721,19 @@
         <v>980911</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>935242</v>
+        <v>932519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1024712</v>
+        <v>1020217</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4952011863846614</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4721458153339479</v>
+        <v>0.4707706794148839</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5173134051068622</v>
+        <v>0.5150440071467399</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>221157</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>197929</v>
+        <v>196570</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>248312</v>
+        <v>245164</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2347190998697646</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2100657559582846</v>
+        <v>0.2086240934237462</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2635392661039327</v>
+        <v>0.2601981066518489</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>324</v>
@@ -1771,19 +1771,19 @@
         <v>336214</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>304458</v>
+        <v>308327</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>365100</v>
+        <v>367821</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.323714420038226</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2931394416822449</v>
+        <v>0.2968640511754661</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3515272751557728</v>
+        <v>0.3541466227345366</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>565</v>
@@ -1792,19 +1792,19 @@
         <v>557371</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>520190</v>
+        <v>520803</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>597887</v>
+        <v>601516</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2813820726865693</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2626114170608477</v>
+        <v>0.2629212267812907</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3018362418367663</v>
+        <v>0.3036680892536148</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>551408</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>506909</v>
+        <v>508010</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>596922</v>
+        <v>600688</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1682895266664256</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1547083909253991</v>
+        <v>0.1550446126267401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1821803606201461</v>
+        <v>0.1833297997465004</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>452</v>
@@ -1917,19 +1917,19 @@
         <v>476412</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>434610</v>
+        <v>433795</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>516950</v>
+        <v>513047</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1409836667247915</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1286133334959173</v>
+        <v>0.1283723415061033</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1529800382582012</v>
+        <v>0.1518251782734777</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>979</v>
@@ -1938,19 +1938,19 @@
         <v>1027820</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>968555</v>
+        <v>968201</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1086548</v>
+        <v>1088661</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1544260224295014</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.145521768026678</v>
+        <v>0.1454685228849773</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1632497183662329</v>
+        <v>0.1635671674071846</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>1693412</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1636169</v>
+        <v>1639240</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1749888</v>
+        <v>1754871</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5168289865431085</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4993582209860148</v>
+        <v>0.500295582812433</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5340651849202904</v>
+        <v>0.5355859887156508</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1554</v>
@@ -1988,19 +1988,19 @@
         <v>1587673</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1521309</v>
+        <v>1522035</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1639756</v>
+        <v>1641193</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4698373352784287</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4501982972497479</v>
+        <v>0.4504131946474661</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4852502500580329</v>
+        <v>0.4856755405857938</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3203</v>
@@ -2009,19 +2009,19 @@
         <v>3281086</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3194861</v>
+        <v>3199496</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3358482</v>
+        <v>3357002</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4929707759685117</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4800158513507115</v>
+        <v>0.4807121853212329</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.504599287829434</v>
+        <v>0.5043769577009001</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>1031723</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>978151</v>
+        <v>981457</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1088073</v>
+        <v>1079146</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.314881486790466</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2985314059751181</v>
+        <v>0.2995405507662482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3320794438032144</v>
+        <v>0.329355013090435</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1291</v>
@@ -2059,19 +2059,19 @@
         <v>1315113</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1262390</v>
+        <v>1262029</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1374457</v>
+        <v>1374349</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3891789979967798</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.373577040571679</v>
+        <v>0.3734701899052664</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.406740756405223</v>
+        <v>0.4067086439045391</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2329</v>
@@ -2080,19 +2080,19 @@
         <v>2346836</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2273571</v>
+        <v>2271059</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2423953</v>
+        <v>2423438</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3526032016019869</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3415954753050385</v>
+        <v>0.3412180620294918</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3641898200763027</v>
+        <v>0.364112409931976</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>61885</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47641</v>
+        <v>46656</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77685</v>
+        <v>79222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0881903470411632</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06789143793431125</v>
+        <v>0.06648830831624702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1107067066964445</v>
+        <v>0.1128975729529307</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -2445,19 +2445,19 @@
         <v>66122</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52244</v>
+        <v>51501</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84974</v>
+        <v>83639</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09500300954447355</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07506335002097216</v>
+        <v>0.07399600124308914</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1220898950345647</v>
+        <v>0.1201725093938694</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -2466,19 +2466,19 @@
         <v>128006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106628</v>
+        <v>105567</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>151981</v>
+        <v>150432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09158272256035463</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07628731552746439</v>
+        <v>0.07552833004223471</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1087355721606749</v>
+        <v>0.1076268164493879</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>387725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>361097</v>
+        <v>359520</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>416145</v>
+        <v>413334</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5525350502942755</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5145881613238061</v>
+        <v>0.5123416912927241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5930355034982886</v>
+        <v>0.5890300062850569</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>309</v>
@@ -2516,19 +2516,19 @@
         <v>329602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303890</v>
+        <v>301847</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>356280</v>
+        <v>355233</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4735695370362564</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4366267764172739</v>
+        <v>0.4336924141969241</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5119013798394692</v>
+        <v>0.5103968498510376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>683</v>
@@ -2537,19 +2537,19 @@
         <v>717326</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>676734</v>
+        <v>675052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>756670</v>
+        <v>752584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5132140544418134</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4841720187396964</v>
+        <v>0.4829689502069724</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5413628765897585</v>
+        <v>0.5384390802944184</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>252110</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>225946</v>
+        <v>227190</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>277792</v>
+        <v>279261</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3592746026645613</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3219882140696513</v>
+        <v>0.3237610117250821</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3958737044348309</v>
+        <v>0.3979663517611584</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>279</v>
@@ -2587,19 +2587,19 @@
         <v>300271</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>273627</v>
+        <v>273337</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>327966</v>
+        <v>325457</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4314274534192701</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3931456300833193</v>
+        <v>0.3927284416555215</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4712190651668954</v>
+        <v>0.4676149933794343</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>519</v>
@@ -2608,19 +2608,19 @@
         <v>552381</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>515974</v>
+        <v>520376</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>590823</v>
+        <v>591411</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3952032229978319</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3691559748731555</v>
+        <v>0.3723052903109811</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4227064509353928</v>
+        <v>0.4231271097464599</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>121338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101469</v>
+        <v>101702</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144379</v>
+        <v>144779</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1194322918907454</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09987545397206443</v>
+        <v>0.1001039665443583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1421105920346527</v>
+        <v>0.1425051172179694</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -2733,19 +2733,19 @@
         <v>96690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79220</v>
+        <v>79492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>119827</v>
+        <v>119531</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09367473612203725</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07674945399740768</v>
+        <v>0.0770135834164916</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1160903666591192</v>
+        <v>0.1158044437690657</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>197</v>
@@ -2754,19 +2754,19 @@
         <v>218028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>192524</v>
+        <v>190152</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>248853</v>
+        <v>248841</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1064514889945763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09399943489731702</v>
+        <v>0.09284109064649396</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1215015273015062</v>
+        <v>0.1214960319448044</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>579866</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>548396</v>
+        <v>547142</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>615359</v>
+        <v>614636</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5707577028026209</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5397816616970353</v>
+        <v>0.5385478067385703</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6056929030326023</v>
+        <v>0.6049808985089739</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>482</v>
@@ -2804,19 +2804,19 @@
         <v>531164</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>497945</v>
+        <v>497714</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>566111</v>
+        <v>564380</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5146016665933721</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4824189102066782</v>
+        <v>0.4821947236598058</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5484597604016361</v>
+        <v>0.5467823869101607</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1016</v>
@@ -2825,19 +2825,19 @@
         <v>1111030</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1066917</v>
+        <v>1062429</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1160979</v>
+        <v>1158829</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5424572520918446</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5209193569314</v>
+        <v>0.5187281150601463</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5668447028936799</v>
+        <v>0.5657949123557046</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>314754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>282860</v>
+        <v>283523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>344636</v>
+        <v>344869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3098100053066336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2784171664988036</v>
+        <v>0.2790692773839393</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3392225124034833</v>
+        <v>0.3394519971871681</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>371</v>
@@ -2875,19 +2875,19 @@
         <v>404331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>370386</v>
+        <v>371261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>436151</v>
+        <v>437542</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3917235972845907</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3588374556365274</v>
+        <v>0.3596851105046518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4225514669797997</v>
+        <v>0.4238991208956306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>661</v>
@@ -2896,19 +2896,19 @@
         <v>719085</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>670849</v>
+        <v>674818</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>761159</v>
+        <v>764015</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3510912589135791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3275399142168045</v>
+        <v>0.3294779521417645</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3716335422043311</v>
+        <v>0.3730280733424151</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>105170</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84568</v>
+        <v>84266</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>126518</v>
+        <v>129280</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1389796742549676</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1117540682698671</v>
+        <v>0.1113558497496625</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1671908223865987</v>
+        <v>0.1708401514958626</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -3021,19 +3021,19 @@
         <v>102755</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83193</v>
+        <v>83665</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>123702</v>
+        <v>123994</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.132405061717265</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1071979142608044</v>
+        <v>0.1078061045907966</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1593965102317479</v>
+        <v>0.1597724610908947</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -3042,19 +3042,19 @@
         <v>207925</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>179629</v>
+        <v>178338</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>239342</v>
+        <v>237844</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1356508977683433</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1171905340517358</v>
+        <v>0.1163483062800288</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.156147698312558</v>
+        <v>0.1551702103330526</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>442440</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>413725</v>
+        <v>412645</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>469141</v>
+        <v>471036</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5846749041493782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5467276256032448</v>
+        <v>0.5453006724137337</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6199595876771262</v>
+        <v>0.6224628137929747</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>357</v>
@@ -3092,19 +3092,19 @@
         <v>392377</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>362643</v>
+        <v>362849</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>421326</v>
+        <v>423011</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5055983028152532</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4672842634052463</v>
+        <v>0.4675496939968796</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5429009702732882</v>
+        <v>0.5450716711267684</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>765</v>
@@ -3113,19 +3113,19 @@
         <v>834818</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>795774</v>
+        <v>794156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>875692</v>
+        <v>874909</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5446378176056929</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5191654071136192</v>
+        <v>0.518109746077374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5713045821040881</v>
+        <v>0.5707933568745205</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>209119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185647</v>
+        <v>184394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236419</v>
+        <v>236148</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2763454215956542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2453286353160567</v>
+        <v>0.2436720158651574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.312422600579631</v>
+        <v>0.3120635927764541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>259</v>
@@ -3163,19 +3163,19 @@
         <v>280933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>253210</v>
+        <v>253450</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>308599</v>
+        <v>311088</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3619966354674818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3262737452099831</v>
+        <v>0.3265839645038387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3976454236445535</v>
+        <v>0.4008534417574803</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>452</v>
@@ -3184,19 +3184,19 @@
         <v>490052</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>455434</v>
+        <v>452696</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>528703</v>
+        <v>529260</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3197112846259639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2971265465195291</v>
+        <v>0.2953402226331216</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3449274307086997</v>
+        <v>0.3452911220043451</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>192788</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>167810</v>
+        <v>167127</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>217321</v>
+        <v>218368</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.203928033432135</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1775066969193597</v>
+        <v>0.1767844533744008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2298783969311033</v>
+        <v>0.2309862833491928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>176</v>
@@ -3309,19 +3309,19 @@
         <v>193065</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167667</v>
+        <v>168457</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>218748</v>
+        <v>222443</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1838737155867001</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1596850490130573</v>
+        <v>0.1604369293842506</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2083341692438135</v>
+        <v>0.2118529009807316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>359</v>
@@ -3330,19 +3330,19 @@
         <v>385853</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>350856</v>
+        <v>351447</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>421992</v>
+        <v>423222</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1933751696400649</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1758360502123588</v>
+        <v>0.1761320432178057</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2114865895198837</v>
+        <v>0.2121031630843679</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>553926</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>523275</v>
+        <v>520416</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>584721</v>
+        <v>584218</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.585932886490245</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5535114121613832</v>
+        <v>0.5504870679040715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6185077265733041</v>
+        <v>0.617975634112552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>487</v>
@@ -3380,19 +3380,19 @@
         <v>504660</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>474377</v>
+        <v>469932</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>541394</v>
+        <v>535987</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4806347071817537</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4517930694107488</v>
+        <v>0.4475597761477816</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5156199138342556</v>
+        <v>0.5104697699745425</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1027</v>
@@ -3401,19 +3401,19 @@
         <v>1058586</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1013398</v>
+        <v>1015508</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1104672</v>
+        <v>1104527</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5305235052108697</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5078769985195776</v>
+        <v>0.5089346401442802</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5536201776044596</v>
+        <v>0.5535475526617171</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>198660</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>173473</v>
+        <v>173806</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>225436</v>
+        <v>224824</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2101390800776201</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1834968243145804</v>
+        <v>0.1838485886862067</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2384620750656678</v>
+        <v>0.23781528005472</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>338</v>
@@ -3451,19 +3451,19 @@
         <v>352262</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>320682</v>
+        <v>319781</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>383871</v>
+        <v>386677</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3354915772315462</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3054147773807645</v>
+        <v>0.3045574342907136</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.365596287260722</v>
+        <v>0.368268102250711</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>523</v>
@@ -3472,19 +3472,19 @@
         <v>550922</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>512087</v>
+        <v>511946</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>593489</v>
+        <v>591935</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2761013251490654</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2566387694980141</v>
+        <v>0.2565683056469272</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2974343921269114</v>
+        <v>0.2966557822039154</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>481181</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>440249</v>
+        <v>439111</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>528073</v>
+        <v>529490</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.140705301530565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1287360753238463</v>
+        <v>0.1284032854826844</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1544171222528681</v>
+        <v>0.1548316377907666</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>412</v>
@@ -3597,19 +3597,19 @@
         <v>458631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>418494</v>
+        <v>413777</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>500358</v>
+        <v>504419</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1290380895694999</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1177452661646739</v>
+        <v>0.1164180780251009</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1407780941734813</v>
+        <v>0.1419206460135314</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>850</v>
@@ -3618,19 +3618,19 @@
         <v>939813</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>884723</v>
+        <v>876323</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>996977</v>
+        <v>998708</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1347592324222216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1268600297609699</v>
+        <v>0.1256555708675584</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.142956055376974</v>
+        <v>0.1432042837635524</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1902976</v>
+        <v>1906248</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2022971</v>
+        <v>2026746</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5742931829222782</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5564610641889376</v>
+        <v>0.5574179987410185</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5915497691751744</v>
+        <v>0.5926535126403256</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1635</v>
@@ -3668,19 +3668,19 @@
         <v>1757803</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1700216</v>
+        <v>1699273</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1822466</v>
+        <v>1822405</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4945663375536714</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4783642047066977</v>
+        <v>0.4780987805318888</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5127597080087322</v>
+        <v>0.512742430906509</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3491</v>
@@ -3689,19 +3689,19 @@
         <v>3721760</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3635991</v>
+        <v>3633947</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3810982</v>
+        <v>3806784</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5336612535518388</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5213629166832029</v>
+        <v>0.5210697731375737</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5464548128971476</v>
+        <v>0.5458528711921562</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>974643</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>917115</v>
+        <v>918164</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1027451</v>
+        <v>1031998</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2850015155471569</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2681793594911166</v>
+        <v>0.2684861760847969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3004434850385819</v>
+        <v>0.3017728927034498</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1247</v>
@@ -3739,19 +3739,19 @@
         <v>1337796</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1277582</v>
+        <v>1278235</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1395093</v>
+        <v>1401578</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3763955728768287</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3594539097542522</v>
+        <v>0.3596376603576684</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.392516265551095</v>
+        <v>0.3943408754051267</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2155</v>
@@ -3760,19 +3760,19 @@
         <v>2312440</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2227632</v>
+        <v>2242443</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2389839</v>
+        <v>2397906</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3315795140259396</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3194190672102404</v>
+        <v>0.3215427808586468</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.342677832818108</v>
+        <v>0.3438344719226277</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>56763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42493</v>
+        <v>42790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72997</v>
+        <v>73579</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08462516058798089</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06335102763155154</v>
+        <v>0.0637933865282113</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1088268568712244</v>
+        <v>0.1096944698868641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -4125,19 +4125,19 @@
         <v>58524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45749</v>
+        <v>45355</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75020</v>
+        <v>75175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0872276657166632</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06818678443361444</v>
+        <v>0.06759942585550593</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1118145757258603</v>
+        <v>0.1120450710236627</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -4146,19 +4146,19 @@
         <v>115287</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94736</v>
+        <v>94263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139185</v>
+        <v>135327</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08592657767289914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07060942537366643</v>
+        <v>0.0702570594421898</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1037380086746211</v>
+        <v>0.1008631067166784</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>394878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>368788</v>
+        <v>368488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420266</v>
+        <v>420193</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5887008009992467</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5498040495946523</v>
+        <v>0.5493577603392356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.626550543821586</v>
+        <v>0.6264407019795075</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>369</v>
@@ -4196,19 +4196,19 @@
         <v>366449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>340058</v>
+        <v>339432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>389520</v>
+        <v>390280</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5461785883455584</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5068436309926106</v>
+        <v>0.5059119247647469</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5805653359038031</v>
+        <v>0.5816984717854596</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>745</v>
@@ -4217,19 +4217,19 @@
         <v>761327</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>722073</v>
+        <v>724391</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>801607</v>
+        <v>796708</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5674370065781936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5381797296320532</v>
+        <v>0.5399073945624068</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5974588196450439</v>
+        <v>0.5938073828921897</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>219121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>193721</v>
+        <v>196164</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>243771</v>
+        <v>243706</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3266740384127724</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.288807988520596</v>
+        <v>0.2924496512303242</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3634238764851561</v>
+        <v>0.3633266754569761</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>234</v>
@@ -4267,19 +4267,19 @@
         <v>245959</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>222145</v>
+        <v>222307</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>268382</v>
+        <v>271017</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3665937459377784</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3310988060450148</v>
+        <v>0.3313404377243655</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4000140804099713</v>
+        <v>0.4039413066397475</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>455</v>
@@ -4288,19 +4288,19 @@
         <v>465080</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>424543</v>
+        <v>433540</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>501345</v>
+        <v>504801</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3466364157489072</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3164231940452963</v>
+        <v>0.3231285375879427</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3736658067556874</v>
+        <v>0.3762413397051068</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>139578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>118618</v>
+        <v>118632</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>164914</v>
+        <v>166269</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1374620227238535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1168194243453821</v>
+        <v>0.1168334194208307</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1624136708219933</v>
+        <v>0.163747753199568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>143</v>
@@ -4413,19 +4413,19 @@
         <v>149300</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>128801</v>
+        <v>128776</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>175077</v>
+        <v>174633</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1437683882948221</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1240287436254521</v>
+        <v>0.1240048148493035</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1685904927476615</v>
+        <v>0.1681622262885617</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>267</v>
@@ -4434,19 +4434,19 @@
         <v>288879</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>261097</v>
+        <v>260126</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>326065</v>
+        <v>323430</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1406506406850007</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1271243465471489</v>
+        <v>0.1266513286852284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1587562763453773</v>
+        <v>0.1574729422488419</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>623647</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>592623</v>
+        <v>591577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>654526</v>
+        <v>654599</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6141912080155849</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5836371772140917</v>
+        <v>0.5826069576201411</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.644601327637519</v>
+        <v>0.6446739957674588</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>545</v>
@@ -4484,19 +4484,19 @@
         <v>571948</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>537099</v>
+        <v>538141</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>605579</v>
+        <v>605180</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5507566474643721</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5171984958495058</v>
+        <v>0.5182022562466316</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.583141411710539</v>
+        <v>0.5827568273540884</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1115</v>
@@ -4505,19 +4505,19 @@
         <v>1195596</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1150903</v>
+        <v>1150272</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1241244</v>
+        <v>1238993</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5821174918862475</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5603570281488454</v>
+        <v>0.5600499314837734</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6043430181507531</v>
+        <v>0.6032466848446968</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>252170</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>226849</v>
+        <v>226282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>280876</v>
+        <v>279485</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2483467692605616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2234089883503435</v>
+        <v>0.222850662322795</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2766171154039897</v>
+        <v>0.275247023423188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>285</v>
@@ -4555,19 +4555,19 @@
         <v>317229</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>288428</v>
+        <v>286140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>349286</v>
+        <v>350336</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3054749642408057</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2777411042534135</v>
+        <v>0.2755382145482762</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3363446095121492</v>
+        <v>0.3373556613148874</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>535</v>
@@ -4576,19 +4576,19 @@
         <v>569399</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>526358</v>
+        <v>529919</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>607616</v>
+        <v>610972</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2772318674287518</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2562759143646413</v>
+        <v>0.2580092588711124</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2958390053696927</v>
+        <v>0.2974731389655789</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>101464</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82441</v>
+        <v>83277</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>122482</v>
+        <v>123614</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1335841291619292</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1085388082926215</v>
+        <v>0.1096400514261111</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1612557752188239</v>
+        <v>0.1627464191493788</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -4701,19 +4701,19 @@
         <v>104094</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85947</v>
+        <v>87059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>123898</v>
+        <v>124209</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1329378631884678</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1097622078624055</v>
+        <v>0.1111829888349795</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1582296679491168</v>
+        <v>0.1586260285634742</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>189</v>
@@ -4722,19 +4722,19 @@
         <v>205558</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>177719</v>
+        <v>179551</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>234315</v>
+        <v>235273</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1332560785498885</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1152087471514089</v>
+        <v>0.1163966959787392</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1518978819519819</v>
+        <v>0.1525190638054356</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>516217</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>487079</v>
+        <v>487679</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>540564</v>
+        <v>541059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6796329284466084</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6412711150751153</v>
+        <v>0.6420609633760267</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7116885324267171</v>
+        <v>0.7123400205094095</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>465</v>
@@ -4772,19 +4772,19 @@
         <v>486461</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>457528</v>
+        <v>458397</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>513835</v>
+        <v>512824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6212568054785204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5843059116201937</v>
+        <v>0.5854158335688704</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6562155952326215</v>
+        <v>0.6549238994285428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>933</v>
@@ -4793,19 +4793,19 @@
         <v>1002679</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>962930</v>
+        <v>964638</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1039723</v>
+        <v>1042241</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6500006661047174</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6242327456438361</v>
+        <v>0.6253403921617549</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6740153424313426</v>
+        <v>0.6756476257762146</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>141871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121478</v>
+        <v>120421</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>164885</v>
+        <v>165005</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1867829423914624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1599336848612585</v>
+        <v>0.158542478126075</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2170817569572227</v>
+        <v>0.2172399078513182</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>168</v>
@@ -4843,19 +4843,19 @@
         <v>192472</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>169342</v>
+        <v>166558</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218389</v>
+        <v>215331</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2458053313330118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.216264961219709</v>
+        <v>0.2127095713136066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2789026880321623</v>
+        <v>0.2749976487508548</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>308</v>
@@ -4864,19 +4864,19 @@
         <v>334344</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>302475</v>
+        <v>303136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>368742</v>
+        <v>369010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2167432553453941</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1960836713885651</v>
+        <v>0.1965124963326141</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2390419506664018</v>
+        <v>0.2392156827965414</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>249080</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>221837</v>
+        <v>220683</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275766</v>
+        <v>276347</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2672801898029519</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2380458207620927</v>
+        <v>0.2368077722334761</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2959156593051353</v>
+        <v>0.2965393989555282</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>221</v>
@@ -4989,19 +4989,19 @@
         <v>237222</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>212207</v>
+        <v>210303</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>266812</v>
+        <v>265385</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2281722276675082</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2041110558001934</v>
+        <v>0.2022801138859527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2566332536126285</v>
+        <v>0.2552608255185364</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>459</v>
@@ -5010,19 +5010,19 @@
         <v>486303</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>445178</v>
+        <v>447747</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>525516</v>
+        <v>523007</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2466574887498307</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2257984859747668</v>
+        <v>0.2271017105699019</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2665469114246587</v>
+        <v>0.2652743997745338</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>541642</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>512219</v>
+        <v>511186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>572720</v>
+        <v>571237</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5812193030620384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5496462974893777</v>
+        <v>0.5485373884053304</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6145674426279834</v>
+        <v>0.6129759042803287</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>529</v>
@@ -5060,19 +5060,19 @@
         <v>563441</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>529777</v>
+        <v>529042</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>600034</v>
+        <v>597143</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5419461751547374</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.509566386163673</v>
+        <v>0.5088591588912997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5771424982306421</v>
+        <v>0.5743625493968378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1067</v>
@@ -5081,19 +5081,19 @@
         <v>1105084</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1063007</v>
+        <v>1063120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1152359</v>
+        <v>1147008</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.560509505567394</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5391675837101229</v>
+        <v>0.5392251813038437</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5844881850596894</v>
+        <v>0.5817738169285872</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>141184</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>122706</v>
+        <v>121908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>164949</v>
+        <v>162448</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1515005071350097</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1316722554787276</v>
+        <v>0.1308154950099272</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1770011931868164</v>
+        <v>0.1743173851318221</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>205</v>
@@ -5131,19 +5131,19 @@
         <v>238999</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>208681</v>
+        <v>210739</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>267333</v>
+        <v>269444</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2298815971777543</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2007200086801508</v>
+        <v>0.2026996770239927</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2571341799253336</v>
+        <v>0.2591651769527043</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>356</v>
@@ -5152,19 +5152,19 @@
         <v>380184</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>344356</v>
+        <v>346441</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>416054</v>
+        <v>416203</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1928330056827754</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1746608170434044</v>
+        <v>0.1757182962133525</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2110267040822508</v>
+        <v>0.2111025022407995</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>546886</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>500889</v>
+        <v>498380</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>591179</v>
+        <v>589637</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1619147729998532</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1482965534860588</v>
+        <v>0.1475535614017656</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1750284842773129</v>
+        <v>0.1745719272684658</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>526</v>
@@ -5277,19 +5277,19 @@
         <v>549140</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>505017</v>
+        <v>507052</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>593009</v>
+        <v>599698</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1554713327523181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1429793028985918</v>
+        <v>0.1435553678654102</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1678914263549025</v>
+        <v>0.1697852218355065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1027</v>
@@ -5298,19 +5298,19 @@
         <v>1096027</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1034521</v>
+        <v>1035501</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1153671</v>
+        <v>1161098</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1586210239150958</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1497196513775693</v>
+        <v>0.1498615711703657</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1669635909264165</v>
+        <v>0.1680383614090235</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2020474</v>
+        <v>2020371</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2133572</v>
+        <v>2139052</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6147483054432877</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5981948186280931</v>
+        <v>0.5981643183875471</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6316795673022928</v>
+        <v>0.63330202177902</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1908</v>
@@ -5348,19 +5348,19 @@
         <v>1988300</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1927924</v>
+        <v>1926253</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2049123</v>
+        <v>2046808</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5629228157835786</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5458293318242052</v>
+        <v>0.5453563244822209</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5801429729642795</v>
+        <v>0.5794875910745155</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3860</v>
@@ -5369,19 +5369,19 @@
         <v>4064685</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3982262</v>
+        <v>3979577</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4150474</v>
+        <v>4145507</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.588256221622215</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5763277276923028</v>
+        <v>0.575939161948518</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6006719232920216</v>
+        <v>0.5999531580787246</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>754347</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>711865</v>
+        <v>707409</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>806164</v>
+        <v>804145</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.223336921556859</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2107595200182975</v>
+        <v>0.2094402854434207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2386782011492035</v>
+        <v>0.2380805347341156</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>892</v>
@@ -5419,19 +5419,19 @@
         <v>994660</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>942118</v>
+        <v>944977</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1051805</v>
+        <v>1051406</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2816058514641033</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2667303496893589</v>
+        <v>0.2675395714453787</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2977845376946814</v>
+        <v>0.2976716592639486</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1654</v>
@@ -5440,19 +5440,19 @@
         <v>1749007</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1674317</v>
+        <v>1681191</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1827007</v>
+        <v>1829648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2531227544626892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2423132928888737</v>
+        <v>0.2433082462697153</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2644112953092067</v>
+        <v>0.2647933860516176</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>92041</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73952</v>
+        <v>72216</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116295</v>
+        <v>113612</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1334984479973177</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1072624178489719</v>
+        <v>0.1047444169540944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1686783641115874</v>
+        <v>0.1647855731946927</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -5805,19 +5805,19 @@
         <v>93644</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80533</v>
+        <v>80141</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110580</v>
+        <v>109806</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1279548782945748</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.110039291635154</v>
+        <v>0.1095047351567772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1510959672998699</v>
+        <v>0.1500386477506445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>237</v>
@@ -5826,19 +5826,19 @@
         <v>185685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>162556</v>
+        <v>162686</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>213105</v>
+        <v>215681</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1306439713876442</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.114371275271315</v>
+        <v>0.1144624172182912</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1499358926750058</v>
+        <v>0.1517488307849091</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>420610</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>392369</v>
+        <v>393735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448802</v>
+        <v>448254</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.610064675557319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5691034139828233</v>
+        <v>0.5710846603932456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6509560663117061</v>
+        <v>0.6501601485057865</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>673</v>
@@ -5876,19 +5876,19 @@
         <v>434348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>412978</v>
+        <v>412059</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>454264</v>
+        <v>454077</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5934908503873871</v>
+        <v>0.593490850387387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5642912738038388</v>
+        <v>0.5630352499203772</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6207036362885795</v>
+        <v>0.6204477256796406</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1083</v>
@@ -5897,19 +5897,19 @@
         <v>854958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>818034</v>
+        <v>819630</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>892018</v>
+        <v>888062</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6015305362180086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5755513576257356</v>
+        <v>0.5766744135219646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.627605261293008</v>
+        <v>0.6248214285585866</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>176801</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>155352</v>
+        <v>153769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>200093</v>
+        <v>200122</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2564368764453633</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2253266258236519</v>
+        <v>0.2230309026128146</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2902209529058917</v>
+        <v>0.2902624242949745</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>416</v>
@@ -5947,19 +5947,19 @@
         <v>203861</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>187261</v>
+        <v>185784</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>221850</v>
+        <v>223238</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2785542713180382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.255871989299555</v>
+        <v>0.2538548345998464</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3031350872426074</v>
+        <v>0.3050313226610434</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>645</v>
@@ -5968,19 +5968,19 @@
         <v>380662</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>351736</v>
+        <v>350413</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>411501</v>
+        <v>410321</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2678254923943472</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2474742621777433</v>
+        <v>0.2465429643650947</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.289523558439992</v>
+        <v>0.2886932465221313</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>182588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>156514</v>
+        <v>156111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>212450</v>
+        <v>213588</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1742708016077048</v>
+        <v>0.1742708016077047</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1493844259903598</v>
+        <v>0.1489997744852285</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2027729328759764</v>
+        <v>0.2038584996306405</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>242</v>
@@ -6093,19 +6093,19 @@
         <v>181400</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>159729</v>
+        <v>161917</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>204186</v>
+        <v>206963</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1694001343016422</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1491627584394948</v>
+        <v>0.1512058689805673</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.190678646158691</v>
+        <v>0.1932719360330533</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>396</v>
@@ -6114,19 +6114,19 @@
         <v>363988</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>330112</v>
+        <v>328544</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>403692</v>
+        <v>400405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1718089005871319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1558186123122512</v>
+        <v>0.1550785944481337</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1905499529782922</v>
+        <v>0.1889981762517495</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>678130</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>647010</v>
+        <v>640985</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>711503</v>
+        <v>712398</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6472400953677395</v>
+        <v>0.6472400953677394</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6175376287267117</v>
+        <v>0.6117867967663349</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.679092824121618</v>
+        <v>0.6799468343675966</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>858</v>
@@ -6164,19 +6164,19 @@
         <v>646393</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>616766</v>
+        <v>618495</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>672730</v>
+        <v>675160</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6036324837918315</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.575966052465181</v>
+        <v>0.5775808168098476</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6282277245637292</v>
+        <v>0.63049681713135</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1451</v>
@@ -6185,19 +6185,19 @@
         <v>1324523</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1282257</v>
+        <v>1281287</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1369761</v>
+        <v>1369188</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.625198429062623</v>
+        <v>0.6251984290626231</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6052483615866145</v>
+        <v>0.6047900932579022</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.646551656652858</v>
+        <v>0.6462809766515836</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>187008</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161341</v>
+        <v>161640</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>213943</v>
+        <v>212932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1784891030245557</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1539918491833699</v>
+        <v>0.1542769236776229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2041970397428358</v>
+        <v>0.2032329070928824</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>416</v>
@@ -6235,19 +6235,19 @@
         <v>243045</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>220480</v>
+        <v>221228</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>263672</v>
+        <v>263539</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2269673819065263</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2058946538351256</v>
+        <v>0.2065929504801345</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.246229200210705</v>
+        <v>0.2461057606818546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>632</v>
@@ -6256,19 +6256,19 @@
         <v>430053</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>393207</v>
+        <v>396733</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>461611</v>
+        <v>463057</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.202992670350245</v>
+        <v>0.2029926703502451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1856008115671988</v>
+        <v>0.1872652046301912</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.217888566080269</v>
+        <v>0.2185711640621308</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>151934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>128244</v>
+        <v>131254</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>179232</v>
+        <v>177116</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1901951199091098</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1605397168936229</v>
+        <v>0.164307072345471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2243670193475861</v>
+        <v>0.2217181147972532</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>217</v>
@@ -6381,19 +6381,19 @@
         <v>172402</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>151241</v>
+        <v>152000</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>194963</v>
+        <v>193397</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2128968657681858</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1867649003205075</v>
+        <v>0.1877021608013094</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2407567872932828</v>
+        <v>0.2388226362288758</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>349</v>
@@ -6402,19 +6402,19 @@
         <v>324337</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>291483</v>
+        <v>292562</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>358554</v>
+        <v>360309</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.201623328472018</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1811996356296923</v>
+        <v>0.1818704478841373</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2228941737426911</v>
+        <v>0.2239852037939198</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>552259</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>523505</v>
+        <v>517962</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>581362</v>
+        <v>577154</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6913318865549216</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6553367788929667</v>
+        <v>0.6483989273978085</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7277635802614634</v>
+        <v>0.7224970436496694</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>598</v>
@@ -6452,19 +6452,19 @@
         <v>490592</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>466337</v>
+        <v>463141</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>515623</v>
+        <v>516793</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.605824281965756</v>
+        <v>0.6058242819657561</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5758718497908005</v>
+        <v>0.5719249534438929</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6367343015673121</v>
+        <v>0.638178768269706</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1039</v>
@@ -6473,19 +6473,19 @@
         <v>1042852</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1003311</v>
+        <v>1004580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1086763</v>
+        <v>1080031</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6482867945595413</v>
+        <v>0.6482867945595412</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6237066182576543</v>
+        <v>0.6244950918389337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6755844720091841</v>
+        <v>0.6713994263894795</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>94640</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75566</v>
+        <v>75347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115993</v>
+        <v>115749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1184729935359686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09459532468001712</v>
+        <v>0.09432106934465403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1452030777305989</v>
+        <v>0.1448981890816745</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>228</v>
@@ -6523,19 +6523,19 @@
         <v>146798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129630</v>
+        <v>128837</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166698</v>
+        <v>165577</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.181278852266058</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.160077630589531</v>
+        <v>0.1590991754877146</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.205852061548812</v>
+        <v>0.2044679749770773</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>327</v>
@@ -6544,19 +6544,19 @@
         <v>241439</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>215205</v>
+        <v>215401</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>269543</v>
+        <v>269209</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1500898769684406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1337815857905605</v>
+        <v>0.1339039193248178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1675610726677522</v>
+        <v>0.167353450948541</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>285024</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>256201</v>
+        <v>255100</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>313750</v>
+        <v>315195</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2894609444367587</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.260189402774298</v>
+        <v>0.259071094120522</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3186337547444663</v>
+        <v>0.3201015808710934</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>398</v>
@@ -6669,19 +6669,19 @@
         <v>287430</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>260294</v>
+        <v>262452</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>312725</v>
+        <v>313389</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.257595194580686</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2332759805571634</v>
+        <v>0.235209288966571</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2802646555300908</v>
+        <v>0.2808589670451155</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>703</v>
@@ -6690,19 +6690,19 @@
         <v>572454</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>529910</v>
+        <v>536924</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>607327</v>
+        <v>613717</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2725332533871204</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2522786309734047</v>
+        <v>0.2556180194677964</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.28913521632183</v>
+        <v>0.2921775666123773</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>579567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>549369</v>
+        <v>544010</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>614503</v>
+        <v>611123</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5885889885006215</v>
+        <v>0.5885889885006216</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5579210587136323</v>
+        <v>0.5524787596510692</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6240689203934686</v>
+        <v>0.6206366042811597</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>792</v>
@@ -6740,19 +6740,19 @@
         <v>600058</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>572398</v>
+        <v>570365</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>633124</v>
+        <v>627761</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5377725616711255</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5129830121099234</v>
+        <v>0.5111608564367767</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.567405732042274</v>
+        <v>0.5626000342769368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1340</v>
@@ -6761,19 +6761,19 @@
         <v>1179626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1137148</v>
+        <v>1129338</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1224174</v>
+        <v>1219773</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.561594338209901</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5413718570166265</v>
+        <v>0.5376535517739706</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5828030496536994</v>
+        <v>0.5807078491233437</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>120081</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>101485</v>
+        <v>100738</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>140188</v>
+        <v>139798</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1219500670626197</v>
+        <v>0.1219500670626198</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1030647717978804</v>
+        <v>0.1023063088303733</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1423699242801229</v>
+        <v>0.1419746042243876</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>367</v>
@@ -6811,19 +6811,19 @@
         <v>228333</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>206069</v>
+        <v>205164</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>250637</v>
+        <v>250883</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2046322437481883</v>
+        <v>0.2046322437481884</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1846786530718721</v>
+        <v>0.1838680234493533</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2246208463293539</v>
+        <v>0.2248418254926494</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>514</v>
@@ -6832,19 +6832,19 @@
         <v>348414</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>318075</v>
+        <v>317698</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>377289</v>
+        <v>375998</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1658724084029786</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1514284323164228</v>
+        <v>0.1512491086334657</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1796193077862232</v>
+        <v>0.1790047652225083</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>711587</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>661481</v>
+        <v>658000</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>763723</v>
+        <v>764391</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2021162039006206</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1878843737660608</v>
+        <v>0.1868955179540205</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2169246253317053</v>
+        <v>0.217114445207067</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1004</v>
@@ -6957,19 +6957,19 @@
         <v>734877</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>691078</v>
+        <v>694292</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>778759</v>
+        <v>781156</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1971074907699235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1853597091296884</v>
+        <v>0.1862218118583998</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2088773677410105</v>
+        <v>0.2095204055680803</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1685</v>
@@ -6978,19 +6978,19 @@
         <v>1446464</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1373903</v>
+        <v>1381429</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1512862</v>
+        <v>1511950</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1995401179323074</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.189530266911151</v>
+        <v>0.190568432570005</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2086996398836566</v>
+        <v>0.2085738229894982</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>2230566</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2162677</v>
+        <v>2167677</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2293093</v>
+        <v>2292048</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6335607230659805</v>
+        <v>0.6335607230659807</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6142778032114889</v>
+        <v>0.6156979962323486</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6513204897756679</v>
+        <v>0.6510236578349068</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2921</v>
@@ -7028,19 +7028,19 @@
         <v>2171392</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2117679</v>
+        <v>2115306</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2225870</v>
+        <v>2222486</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5824069625964751</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5680001184020572</v>
+        <v>0.5673635592940569</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5970190522917045</v>
+        <v>0.5961112102629903</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4913</v>
@@ -7049,19 +7049,19 @@
         <v>4401958</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4321537</v>
+        <v>4320768</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4488370</v>
+        <v>4483063</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.607251273685795</v>
+        <v>0.6072512736857952</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5961570669204831</v>
+        <v>0.5960510464843863</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6191717840604763</v>
+        <v>0.6184396779141214</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>578529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>539221</v>
+        <v>534614</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>627215</v>
+        <v>626105</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1643230730333987</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1531581043349651</v>
+        <v>0.1518493960875252</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1781513948427237</v>
+        <v>0.1778363385262801</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1427</v>
@@ -7099,19 +7099,19 @@
         <v>822038</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>780350</v>
+        <v>781034</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>861573</v>
+        <v>862340</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2204855466336016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2093041355415014</v>
+        <v>0.2094874731023851</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2310894756187021</v>
+        <v>0.2312953939427604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2118</v>
@@ -7120,19 +7120,19 @@
         <v>1400567</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1346253</v>
+        <v>1340795</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1463303</v>
+        <v>1462936</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1932086083818974</v>
+        <v>0.1932086083818975</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1857160022178033</v>
+        <v>0.1849630560500745</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.201863043658867</v>
+        <v>0.201812323441685</v>
       </c>
     </row>
     <row r="23">
